--- a/Abdullah Khan/SchoolManagementSystem-EvaluationRubrics.xlsx
+++ b/Abdullah Khan/SchoolManagementSystem-EvaluationRubrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assignments\Cognizant\ICT\Package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC825D16-BD87-4877-8CE6-556856DF484C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD964A10-F7AD-4D1A-9961-07B4D07E3827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,13 +108,13 @@
     <t>TestCourseCreate</t>
   </si>
   <si>
-    <t>TestCourseCreate_WithStudentParam_RedirectRoute</t>
-  </si>
-  <si>
-    <t>TestCourseEdit</t>
-  </si>
-  <si>
-    <t>TestCourseDelete</t>
+    <t>Test_Index</t>
+  </si>
+  <si>
+    <t>Test_AddStudent_RequiredFields</t>
+  </si>
+  <si>
+    <t>Test_AddStudent_RequiredFields_FirstName</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
@@ -921,7 +921,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>8</v>
@@ -939,7 +939,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>8</v>
@@ -1082,12 +1082,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A9C735C9F3CD54A948D0AD38DF112BF" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="21d22ff45c5bcee3e13d2da0d2eaf86f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eac52b12-2228-488c-9d59-8a93d308b64e" xmlns:ns3="951c5514-b77c-4532-82d5-a05f2f7d58e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b7f95d062efb1de1c26afcaa392f390" ns2:_="" ns3:_="">
     <xsd:import namespace="eac52b12-2228-488c-9d59-8a93d308b64e"/>
@@ -1298,6 +1292,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77354484-AF70-4A08-B3E8-D305E73F344E}">
   <ds:schemaRefs>
@@ -1307,15 +1307,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B77C63F-E3A9-4F77-A918-884FE6F7C7AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E216F0-5B9A-4DB7-86E0-C987614B143C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1332,4 +1323,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B77C63F-E3A9-4F77-A918-884FE6F7C7AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>